--- a/tests/fixtures/weibull/input_data/input_data.xlsx
+++ b/tests/fixtures/weibull/input_data/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\fixtures\weibull\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE60DE9-50A7-481E-9C32-65221884CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E62C4-F224-4B4E-93D7-A6A32E134842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capacity_start" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -863,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1502,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1573,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1644,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1715,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1857,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -1999,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2070,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2141,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2283,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2354,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2496,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -2567,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -2638,7 +2638,7 @@
         <v>10</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -2709,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -2780,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -2851,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -2993,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -3064,7 +3064,7 @@
         <v>10</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -3135,7 +3135,7 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -3206,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -3277,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -3561,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -3703,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -3774,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -3845,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -3916,7 +3916,7 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -3987,7 +3987,7 @@
         <v>10</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -4058,7 +4058,7 @@
         <v>10</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -4129,7 +4129,7 @@
         <v>10</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -4200,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -4342,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -4413,7 +4413,7 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -4484,7 +4484,7 @@
         <v>10</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -4555,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -4626,7 +4626,7 @@
         <v>10</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -4697,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -4768,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -4839,7 +4839,7 @@
         <v>10</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -4960,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5000,7 +5000,7 @@
         <v>43</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5017,7 +5017,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5034,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5051,7 +5051,7 @@
         <v>44</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
